--- a/DFS Results.xlsx
+++ b/DFS Results.xlsx
@@ -95,7 +95,7 @@
         <v>495.0</v>
       </c>
       <c r="C2" t="n">
-        <v>61154.0</v>
+        <v>115466.0</v>
       </c>
     </row>
     <row r="3">
@@ -106,7 +106,7 @@
         <v>990.0</v>
       </c>
       <c r="C3" t="n">
-        <v>30364.0</v>
+        <v>117605.0</v>
       </c>
     </row>
     <row r="4">
@@ -117,7 +117,7 @@
         <v>1485.0</v>
       </c>
       <c r="C4" t="n">
-        <v>36779.0</v>
+        <v>80398.0</v>
       </c>
     </row>
     <row r="5">
@@ -128,7 +128,7 @@
         <v>1980.0</v>
       </c>
       <c r="C5" t="n">
-        <v>42338.0</v>
+        <v>35923.0</v>
       </c>
     </row>
     <row r="6">
@@ -139,7 +139,7 @@
         <v>2475.0</v>
       </c>
       <c r="C6" t="n">
-        <v>10263.0</v>
+        <v>53457.0</v>
       </c>
     </row>
     <row r="7">
@@ -150,7 +150,7 @@
         <v>2970.0</v>
       </c>
       <c r="C7" t="n">
-        <v>9409.0</v>
+        <v>31647.0</v>
       </c>
     </row>
     <row r="8">
@@ -161,7 +161,7 @@
         <v>3465.0</v>
       </c>
       <c r="C8" t="n">
-        <v>10691.0</v>
+        <v>20955.0</v>
       </c>
     </row>
     <row r="9">
@@ -172,7 +172,7 @@
         <v>3960.0</v>
       </c>
       <c r="C9" t="n">
-        <v>9409.0</v>
+        <v>18389.0</v>
       </c>
     </row>
     <row r="10">
@@ -183,7 +183,7 @@
         <v>4455.0</v>
       </c>
       <c r="C10" t="n">
-        <v>10263.0</v>
+        <v>35068.0</v>
       </c>
     </row>
     <row r="11">
@@ -194,7 +194,7 @@
         <v>4950.0</v>
       </c>
       <c r="C11" t="n">
-        <v>11547.0</v>
+        <v>17106.0</v>
       </c>
     </row>
     <row r="12">
@@ -205,7 +205,7 @@
         <v>1990.0</v>
       </c>
       <c r="C12" t="n">
-        <v>22666.0</v>
+        <v>2994.0</v>
       </c>
     </row>
     <row r="13">
@@ -216,7 +216,7 @@
         <v>3980.0</v>
       </c>
       <c r="C13" t="n">
-        <v>4276.0</v>
+        <v>2993.0</v>
       </c>
     </row>
     <row r="14">
@@ -227,7 +227,7 @@
         <v>5970.0</v>
       </c>
       <c r="C14" t="n">
-        <v>4276.0</v>
+        <v>2993.0</v>
       </c>
     </row>
     <row r="15">
@@ -238,7 +238,7 @@
         <v>7960.0</v>
       </c>
       <c r="C15" t="n">
-        <v>4276.0</v>
+        <v>2994.0</v>
       </c>
     </row>
     <row r="16">
@@ -249,7 +249,7 @@
         <v>9950.0</v>
       </c>
       <c r="C16" t="n">
-        <v>4276.0</v>
+        <v>2994.0</v>
       </c>
     </row>
     <row r="17">
@@ -260,7 +260,7 @@
         <v>11940.0</v>
       </c>
       <c r="C17" t="n">
-        <v>5559.0</v>
+        <v>17106.0</v>
       </c>
     </row>
     <row r="18">
@@ -271,7 +271,7 @@
         <v>13930.0</v>
       </c>
       <c r="C18" t="n">
-        <v>3849.0</v>
+        <v>2994.0</v>
       </c>
     </row>
     <row r="19">
@@ -282,7 +282,7 @@
         <v>15920.0</v>
       </c>
       <c r="C19" t="n">
-        <v>6843.0</v>
+        <v>2566.0</v>
       </c>
     </row>
     <row r="20">
@@ -293,7 +293,7 @@
         <v>17910.0</v>
       </c>
       <c r="C20" t="n">
-        <v>4277.0</v>
+        <v>2138.0</v>
       </c>
     </row>
     <row r="21">
@@ -304,7 +304,7 @@
         <v>19900.0</v>
       </c>
       <c r="C21" t="n">
-        <v>4277.0</v>
+        <v>2994.0</v>
       </c>
     </row>
     <row r="22">
@@ -315,7 +315,7 @@
         <v>4485.0</v>
       </c>
       <c r="C22" t="n">
-        <v>26515.0</v>
+        <v>31219.0</v>
       </c>
     </row>
     <row r="23">
@@ -326,7 +326,7 @@
         <v>8970.0</v>
       </c>
       <c r="C23" t="n">
-        <v>29508.0</v>
+        <v>40627.0</v>
       </c>
     </row>
     <row r="24">
@@ -337,7 +337,7 @@
         <v>13455.0</v>
       </c>
       <c r="C24" t="n">
-        <v>33357.0</v>
+        <v>38489.0</v>
       </c>
     </row>
     <row r="25">
@@ -348,7 +348,7 @@
         <v>17940.0</v>
       </c>
       <c r="C25" t="n">
-        <v>1515601.0</v>
+        <v>45759.0</v>
       </c>
     </row>
     <row r="26">
@@ -359,7 +359,7 @@
         <v>22425.0</v>
       </c>
       <c r="C26" t="n">
-        <v>41054.0</v>
+        <v>37206.0</v>
       </c>
     </row>
     <row r="27">
@@ -370,7 +370,7 @@
         <v>26910.0</v>
       </c>
       <c r="C27" t="n">
-        <v>47469.0</v>
+        <v>39772.0</v>
       </c>
     </row>
     <row r="28">
@@ -381,7 +381,7 @@
         <v>31395.0</v>
       </c>
       <c r="C28" t="n">
-        <v>49180.0</v>
+        <v>55595.0</v>
       </c>
     </row>
     <row r="29">
@@ -392,7 +392,7 @@
         <v>35880.0</v>
       </c>
       <c r="C29" t="n">
-        <v>60727.0</v>
+        <v>47469.0</v>
       </c>
     </row>
     <row r="30">
@@ -403,7 +403,7 @@
         <v>40365.0</v>
       </c>
       <c r="C30" t="n">
-        <v>55167.0</v>
+        <v>53029.0</v>
       </c>
     </row>
     <row r="31">
@@ -414,7 +414,7 @@
         <v>44850.0</v>
       </c>
       <c r="C31" t="n">
-        <v>60726.0</v>
+        <v>49607.0</v>
       </c>
     </row>
     <row r="32">
@@ -425,7 +425,7 @@
         <v>7980.0</v>
       </c>
       <c r="C32" t="n">
-        <v>27370.0</v>
+        <v>66286.0</v>
       </c>
     </row>
     <row r="33">
@@ -436,7 +436,7 @@
         <v>15960.0</v>
       </c>
       <c r="C33" t="n">
-        <v>22237.0</v>
+        <v>77405.0</v>
       </c>
     </row>
     <row r="34">
@@ -447,7 +447,7 @@
         <v>23940.0</v>
       </c>
       <c r="C34" t="n">
-        <v>29080.0</v>
+        <v>72273.0</v>
       </c>
     </row>
     <row r="35">
@@ -458,7 +458,7 @@
         <v>31920.0</v>
       </c>
       <c r="C35" t="n">
-        <v>31646.0</v>
+        <v>80826.0</v>
       </c>
     </row>
     <row r="36">
@@ -469,7 +469,7 @@
         <v>39900.0</v>
       </c>
       <c r="C36" t="n">
-        <v>38061.0</v>
+        <v>113328.0</v>
       </c>
     </row>
     <row r="37">
@@ -480,7 +480,7 @@
         <v>47880.0</v>
       </c>
       <c r="C37" t="n">
-        <v>43193.0</v>
+        <v>56451.0</v>
       </c>
     </row>
     <row r="38">
@@ -491,7 +491,7 @@
         <v>55860.0</v>
       </c>
       <c r="C38" t="n">
-        <v>51318.0</v>
+        <v>44904.0</v>
       </c>
     </row>
     <row r="39">
@@ -502,7 +502,7 @@
         <v>63840.0</v>
       </c>
       <c r="C39" t="n">
-        <v>62437.0</v>
+        <v>38488.0</v>
       </c>
     </row>
     <row r="40">
@@ -513,7 +513,7 @@
         <v>71820.0</v>
       </c>
       <c r="C40" t="n">
-        <v>59871.0</v>
+        <v>35923.0</v>
       </c>
     </row>
     <row r="41">
@@ -524,7 +524,7 @@
         <v>79800.0</v>
       </c>
       <c r="C41" t="n">
-        <v>66714.0</v>
+        <v>37205.0</v>
       </c>
     </row>
     <row r="42">
@@ -535,7 +535,7 @@
         <v>12475.0</v>
       </c>
       <c r="C42" t="n">
-        <v>52174.0</v>
+        <v>20527.0</v>
       </c>
     </row>
     <row r="43">
@@ -546,7 +546,7 @@
         <v>24950.0</v>
       </c>
       <c r="C43" t="n">
-        <v>61155.0</v>
+        <v>18817.0</v>
       </c>
     </row>
     <row r="44">
@@ -557,7 +557,7 @@
         <v>37425.0</v>
       </c>
       <c r="C44" t="n">
-        <v>71418.0</v>
+        <v>27369.0</v>
       </c>
     </row>
     <row r="45">
@@ -568,7 +568,7 @@
         <v>49900.0</v>
       </c>
       <c r="C45" t="n">
-        <v>30791.0</v>
+        <v>44904.0</v>
       </c>
     </row>
     <row r="46">
@@ -579,7 +579,7 @@
         <v>62375.0</v>
       </c>
       <c r="C46" t="n">
-        <v>30363.0</v>
+        <v>50890.0</v>
       </c>
     </row>
     <row r="47">
@@ -590,7 +590,7 @@
         <v>74850.0</v>
       </c>
       <c r="C47" t="n">
-        <v>39771.0</v>
+        <v>67997.0</v>
       </c>
     </row>
     <row r="48">
@@ -601,7 +601,7 @@
         <v>87325.0</v>
       </c>
       <c r="C48" t="n">
-        <v>39772.0</v>
+        <v>75695.0</v>
       </c>
     </row>
     <row r="49">
@@ -612,7 +612,7 @@
         <v>99800.0</v>
       </c>
       <c r="C49" t="n">
-        <v>41910.0</v>
+        <v>58161.0</v>
       </c>
     </row>
     <row r="50">
@@ -623,7 +623,7 @@
         <v>112275.0</v>
       </c>
       <c r="C50" t="n">
-        <v>41910.0</v>
+        <v>88096.0</v>
       </c>
     </row>
     <row r="51">
@@ -634,7 +634,7 @@
         <v>124750.0</v>
       </c>
       <c r="C51" t="n">
-        <v>31646.0</v>
+        <v>76977.0</v>
       </c>
     </row>
     <row r="52">
@@ -645,7 +645,7 @@
         <v>17970.0</v>
       </c>
       <c r="C52" t="n">
-        <v>48325.0</v>
+        <v>35495.0</v>
       </c>
     </row>
     <row r="53">
@@ -656,7 +656,7 @@
         <v>35940.0</v>
       </c>
       <c r="C53" t="n">
-        <v>41910.0</v>
+        <v>47470.0</v>
       </c>
     </row>
     <row r="54">
@@ -667,7 +667,7 @@
         <v>53910.0</v>
       </c>
       <c r="C54" t="n">
-        <v>5987.0</v>
+        <v>14112.0</v>
       </c>
     </row>
     <row r="55">
@@ -678,7 +678,7 @@
         <v>71880.0</v>
       </c>
       <c r="C55" t="n">
-        <v>13257.0</v>
+        <v>15823.0</v>
       </c>
     </row>
     <row r="56">
@@ -689,7 +689,7 @@
         <v>89850.0</v>
       </c>
       <c r="C56" t="n">
-        <v>4704.0</v>
+        <v>18390.0</v>
       </c>
     </row>
     <row r="57">
@@ -700,7 +700,7 @@
         <v>107820.0</v>
       </c>
       <c r="C57" t="n">
-        <v>3849.0</v>
+        <v>28652.0</v>
       </c>
     </row>
     <row r="58">
@@ -711,7 +711,7 @@
         <v>125790.0</v>
       </c>
       <c r="C58" t="n">
-        <v>3849.0</v>
+        <v>22238.0</v>
       </c>
     </row>
     <row r="59">
@@ -722,7 +722,7 @@
         <v>143760.0</v>
       </c>
       <c r="C59" t="n">
-        <v>4704.0</v>
+        <v>26087.0</v>
       </c>
     </row>
     <row r="60">
@@ -733,7 +733,7 @@
         <v>161730.0</v>
       </c>
       <c r="C60" t="n">
-        <v>6843.0</v>
+        <v>32502.0</v>
       </c>
     </row>
     <row r="61">
@@ -744,7 +744,7 @@
         <v>179700.0</v>
       </c>
       <c r="C61" t="n">
-        <v>4277.0</v>
+        <v>46614.0</v>
       </c>
     </row>
     <row r="62">
@@ -755,7 +755,7 @@
         <v>24465.0</v>
       </c>
       <c r="C62" t="n">
-        <v>48325.0</v>
+        <v>18389.0</v>
       </c>
     </row>
     <row r="63">
@@ -766,7 +766,7 @@
         <v>48930.0</v>
       </c>
       <c r="C63" t="n">
-        <v>53884.0</v>
+        <v>20955.0</v>
       </c>
     </row>
     <row r="64">
@@ -777,7 +777,7 @@
         <v>73395.0</v>
       </c>
       <c r="C64" t="n">
-        <v>65003.0</v>
+        <v>26515.0</v>
       </c>
     </row>
     <row r="65">
@@ -788,7 +788,7 @@
         <v>97860.0</v>
       </c>
       <c r="C65" t="n">
-        <v>12829.0</v>
+        <v>56878.0</v>
       </c>
     </row>
     <row r="66">
@@ -799,7 +799,7 @@
         <v>122325.0</v>
       </c>
       <c r="C66" t="n">
-        <v>12401.0</v>
+        <v>43192.0</v>
       </c>
     </row>
     <row r="67">
@@ -810,7 +810,7 @@
         <v>146790.0</v>
       </c>
       <c r="C67" t="n">
-        <v>18816.0</v>
+        <v>59016.0</v>
       </c>
     </row>
     <row r="68">
@@ -821,7 +821,7 @@
         <v>171255.0</v>
       </c>
       <c r="C68" t="n">
-        <v>11546.0</v>
+        <v>82965.0</v>
       </c>
     </row>
     <row r="69">
@@ -832,7 +832,7 @@
         <v>195720.0</v>
       </c>
       <c r="C69" t="n">
-        <v>11119.0</v>
+        <v>57733.0</v>
       </c>
     </row>
     <row r="70">
@@ -843,7 +843,7 @@
         <v>220185.0</v>
       </c>
       <c r="C70" t="n">
-        <v>12829.0</v>
+        <v>67142.0</v>
       </c>
     </row>
     <row r="71">
@@ -854,7 +854,7 @@
         <v>244650.0</v>
       </c>
       <c r="C71" t="n">
-        <v>10692.0</v>
+        <v>45759.0</v>
       </c>
     </row>
     <row r="72">
@@ -865,7 +865,7 @@
         <v>31960.0</v>
       </c>
       <c r="C72" t="n">
-        <v>30791.0</v>
+        <v>7270.0</v>
       </c>
     </row>
     <row r="73">
@@ -876,7 +876,7 @@
         <v>63920.0</v>
       </c>
       <c r="C73" t="n">
-        <v>32929.0</v>
+        <v>11547.0</v>
       </c>
     </row>
     <row r="74">
@@ -887,7 +887,7 @@
         <v>95880.0</v>
       </c>
       <c r="C74" t="n">
-        <v>41910.0</v>
+        <v>13257.0</v>
       </c>
     </row>
     <row r="75">
@@ -898,7 +898,7 @@
         <v>127840.0</v>
       </c>
       <c r="C75" t="n">
-        <v>39344.0</v>
+        <v>17534.0</v>
       </c>
     </row>
     <row r="76">
@@ -909,7 +909,7 @@
         <v>159800.0</v>
       </c>
       <c r="C76" t="n">
-        <v>63720.0</v>
+        <v>17106.0</v>
       </c>
     </row>
     <row r="77">
@@ -920,7 +920,7 @@
         <v>191760.0</v>
       </c>
       <c r="C77" t="n">
-        <v>54740.0</v>
+        <v>32929.0</v>
       </c>
     </row>
     <row r="78">
@@ -931,7 +931,7 @@
         <v>223720.0</v>
       </c>
       <c r="C78" t="n">
-        <v>50035.0</v>
+        <v>20955.0</v>
       </c>
     </row>
     <row r="79">
@@ -942,7 +942,7 @@
         <v>255680.0</v>
       </c>
       <c r="C79" t="n">
-        <v>53029.0</v>
+        <v>20955.0</v>
       </c>
     </row>
     <row r="80">
@@ -953,7 +953,7 @@
         <v>287640.0</v>
       </c>
       <c r="C80" t="n">
-        <v>50891.0</v>
+        <v>20527.0</v>
       </c>
     </row>
     <row r="81">
@@ -964,7 +964,7 @@
         <v>319600.0</v>
       </c>
       <c r="C81" t="n">
-        <v>38489.0</v>
+        <v>19244.0</v>
       </c>
     </row>
     <row r="82">
@@ -975,7 +975,7 @@
         <v>40455.0</v>
       </c>
       <c r="C82" t="n">
-        <v>19245.0</v>
+        <v>38489.0</v>
       </c>
     </row>
     <row r="83">
@@ -986,7 +986,7 @@
         <v>80910.0</v>
       </c>
       <c r="C83" t="n">
-        <v>5987.0</v>
+        <v>33785.0</v>
       </c>
     </row>
     <row r="84">
@@ -997,7 +997,7 @@
         <v>121365.0</v>
       </c>
       <c r="C84" t="n">
-        <v>7270.0</v>
+        <v>50891.0</v>
       </c>
     </row>
     <row r="85">
@@ -1008,7 +1008,7 @@
         <v>161820.0</v>
       </c>
       <c r="C85" t="n">
-        <v>4705.0</v>
+        <v>35067.0</v>
       </c>
     </row>
     <row r="86">
@@ -1019,7 +1019,7 @@
         <v>202275.0</v>
       </c>
       <c r="C86" t="n">
-        <v>4704.0</v>
+        <v>35923.0</v>
       </c>
     </row>
     <row r="87">
@@ -1030,7 +1030,7 @@
         <v>242730.0</v>
       </c>
       <c r="C87" t="n">
-        <v>4704.0</v>
+        <v>40627.0</v>
       </c>
     </row>
     <row r="88">
@@ -1041,7 +1041,7 @@
         <v>283185.0</v>
       </c>
       <c r="C88" t="n">
-        <v>4277.0</v>
+        <v>85103.0</v>
       </c>
     </row>
     <row r="89">
@@ -1052,7 +1052,7 @@
         <v>323640.0</v>
       </c>
       <c r="C89" t="n">
-        <v>4277.0</v>
+        <v>54740.0</v>
       </c>
     </row>
     <row r="90">
@@ -1063,7 +1063,7 @@
         <v>364095.0</v>
       </c>
       <c r="C90" t="n">
-        <v>5988.0</v>
+        <v>58161.0</v>
       </c>
     </row>
     <row r="91">
@@ -1074,7 +1074,7 @@
         <v>404550.0</v>
       </c>
       <c r="C91" t="n">
-        <v>4705.0</v>
+        <v>82964.0</v>
       </c>
     </row>
     <row r="92">
@@ -1085,7 +1085,7 @@
         <v>49950.0</v>
       </c>
       <c r="C92" t="n">
-        <v>30791.0</v>
+        <v>11547.0</v>
       </c>
     </row>
     <row r="93">
@@ -1096,7 +1096,7 @@
         <v>99900.0</v>
       </c>
       <c r="C93" t="n">
-        <v>24804.0</v>
+        <v>4276.0</v>
       </c>
     </row>
     <row r="94">
@@ -1107,7 +1107,7 @@
         <v>149850.0</v>
       </c>
       <c r="C94" t="n">
-        <v>33785.0</v>
+        <v>4276.0</v>
       </c>
     </row>
     <row r="95">
@@ -1118,7 +1118,7 @@
         <v>199800.0</v>
       </c>
       <c r="C95" t="n">
-        <v>58161.0</v>
+        <v>4276.0</v>
       </c>
     </row>
     <row r="96">
@@ -1129,7 +1129,7 @@
         <v>249750.0</v>
       </c>
       <c r="C96" t="n">
-        <v>60726.0</v>
+        <v>4705.0</v>
       </c>
     </row>
     <row r="97">
@@ -1140,7 +1140,7 @@
         <v>299700.0</v>
       </c>
       <c r="C97" t="n">
-        <v>62865.0</v>
+        <v>4277.0</v>
       </c>
     </row>
     <row r="98">
@@ -1151,7 +1151,7 @@
         <v>349650.0</v>
       </c>
       <c r="C98" t="n">
-        <v>43193.0</v>
+        <v>11119.0</v>
       </c>
     </row>
     <row r="99">
@@ -1162,7 +1162,7 @@
         <v>399600.0</v>
       </c>
       <c r="C99" t="n">
-        <v>40200.0</v>
+        <v>4704.0</v>
       </c>
     </row>
     <row r="100">
@@ -1173,7 +1173,7 @@
         <v>449550.0</v>
       </c>
       <c r="C100" t="n">
-        <v>85530.0</v>
+        <v>9836.0</v>
       </c>
     </row>
     <row r="101">
@@ -1184,7 +1184,7 @@
         <v>499500.0</v>
       </c>
       <c r="C101" t="n">
-        <v>121453.0</v>
+        <v>4704.0</v>
       </c>
     </row>
   </sheetData>

--- a/DFS Results.xlsx
+++ b/DFS Results.xlsx
@@ -12,9 +12,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Graph Size</t>
+  </si>
+  <si>
+    <t>Graph Density</t>
   </si>
   <si>
     <t>Num Of Non-Stop Flights</t>
@@ -65,15 +68,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="10.53125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="23.2734375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.97265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.75390625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.2734375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="11.97265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -86,16 +90,22 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>100.0</v>
       </c>
       <c r="B2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="n">
         <v>495.0</v>
       </c>
-      <c r="C2" t="n">
-        <v>115466.0</v>
+      <c r="D2" t="n">
+        <v>443048.0</v>
       </c>
     </row>
     <row r="3">
@@ -103,10 +113,13 @@
         <v>100.0</v>
       </c>
       <c r="B3" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C3" t="n">
         <v>990.0</v>
       </c>
-      <c r="C3" t="n">
-        <v>117605.0</v>
+      <c r="D3" t="n">
+        <v>722306.0</v>
       </c>
     </row>
     <row r="4">
@@ -114,10 +127,13 @@
         <v>100.0</v>
       </c>
       <c r="B4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C4" t="n">
         <v>1485.0</v>
       </c>
-      <c r="C4" t="n">
-        <v>80398.0</v>
+      <c r="D4" t="n">
+        <v>690659.0</v>
       </c>
     </row>
     <row r="5">
@@ -125,10 +141,13 @@
         <v>100.0</v>
       </c>
       <c r="B5" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C5" t="n">
         <v>1980.0</v>
       </c>
-      <c r="C5" t="n">
-        <v>35923.0</v>
+      <c r="D5" t="n">
+        <v>706910.0</v>
       </c>
     </row>
     <row r="6">
@@ -136,10 +155,13 @@
         <v>100.0</v>
       </c>
       <c r="B6" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C6" t="n">
         <v>2475.0</v>
       </c>
-      <c r="C6" t="n">
-        <v>53457.0</v>
+      <c r="D6" t="n">
+        <v>728720.0</v>
       </c>
     </row>
     <row r="7">
@@ -147,10 +169,13 @@
         <v>100.0</v>
       </c>
       <c r="B7" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C7" t="n">
         <v>2970.0</v>
       </c>
-      <c r="C7" t="n">
-        <v>31647.0</v>
+      <c r="D7" t="n">
+        <v>843759.0</v>
       </c>
     </row>
     <row r="8">
@@ -158,10 +183,13 @@
         <v>100.0</v>
       </c>
       <c r="B8" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C8" t="n">
         <v>3465.0</v>
       </c>
-      <c r="C8" t="n">
-        <v>20955.0</v>
+      <c r="D8" t="n">
+        <v>583746.0</v>
       </c>
     </row>
     <row r="9">
@@ -169,10 +197,13 @@
         <v>100.0</v>
       </c>
       <c r="B9" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C9" t="n">
         <v>3960.0</v>
       </c>
-      <c r="C9" t="n">
-        <v>18389.0</v>
+      <c r="D9" t="n">
+        <v>633782.0</v>
       </c>
     </row>
     <row r="10">
@@ -180,10 +211,13 @@
         <v>100.0</v>
       </c>
       <c r="B10" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C10" t="n">
         <v>4455.0</v>
       </c>
-      <c r="C10" t="n">
-        <v>35068.0</v>
+      <c r="D10" t="n">
+        <v>712042.0</v>
       </c>
     </row>
     <row r="11">
@@ -191,10 +225,13 @@
         <v>100.0</v>
       </c>
       <c r="B11" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C11" t="n">
         <v>4950.0</v>
       </c>
-      <c r="C11" t="n">
-        <v>17106.0</v>
+      <c r="D11" t="n">
+        <v>756517.0</v>
       </c>
     </row>
     <row r="12">
@@ -202,10 +239,13 @@
         <v>200.0</v>
       </c>
       <c r="B12" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C12" t="n">
         <v>1990.0</v>
       </c>
-      <c r="C12" t="n">
-        <v>2994.0</v>
+      <c r="D12" t="n">
+        <v>1103771.0</v>
       </c>
     </row>
     <row r="13">
@@ -213,10 +253,13 @@
         <v>200.0</v>
       </c>
       <c r="B13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C13" t="n">
         <v>3980.0</v>
       </c>
-      <c r="C13" t="n">
-        <v>2993.0</v>
+      <c r="D13" t="n">
+        <v>523019.0</v>
       </c>
     </row>
     <row r="14">
@@ -224,10 +267,13 @@
         <v>200.0</v>
       </c>
       <c r="B14" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C14" t="n">
         <v>5970.0</v>
       </c>
-      <c r="C14" t="n">
-        <v>2993.0</v>
+      <c r="D14" t="n">
+        <v>457161.0</v>
       </c>
     </row>
     <row r="15">
@@ -235,10 +281,13 @@
         <v>200.0</v>
       </c>
       <c r="B15" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C15" t="n">
         <v>7960.0</v>
       </c>
-      <c r="C15" t="n">
-        <v>2994.0</v>
+      <c r="D15" t="n">
+        <v>503348.0</v>
       </c>
     </row>
     <row r="16">
@@ -246,10 +295,13 @@
         <v>200.0</v>
       </c>
       <c r="B16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C16" t="n">
         <v>9950.0</v>
       </c>
-      <c r="C16" t="n">
-        <v>2994.0</v>
+      <c r="D16" t="n">
+        <v>634636.0</v>
       </c>
     </row>
     <row r="17">
@@ -257,10 +309,13 @@
         <v>200.0</v>
       </c>
       <c r="B17" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C17" t="n">
         <v>11940.0</v>
       </c>
-      <c r="C17" t="n">
-        <v>17106.0</v>
+      <c r="D17" t="n">
+        <v>1064855.0</v>
       </c>
     </row>
     <row r="18">
@@ -268,10 +323,13 @@
         <v>200.0</v>
       </c>
       <c r="B18" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C18" t="n">
         <v>13930.0</v>
       </c>
-      <c r="C18" t="n">
-        <v>2994.0</v>
+      <c r="D18" t="n">
+        <v>2202411.0</v>
       </c>
     </row>
     <row r="19">
@@ -279,10 +337,13 @@
         <v>200.0</v>
       </c>
       <c r="B19" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C19" t="n">
         <v>15920.0</v>
       </c>
-      <c r="C19" t="n">
-        <v>2566.0</v>
+      <c r="D19" t="n">
+        <v>1160649.0</v>
       </c>
     </row>
     <row r="20">
@@ -290,10 +351,13 @@
         <v>200.0</v>
       </c>
       <c r="B20" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C20" t="n">
         <v>17910.0</v>
       </c>
-      <c r="C20" t="n">
-        <v>2138.0</v>
+      <c r="D20" t="n">
+        <v>946823.0</v>
       </c>
     </row>
     <row r="21">
@@ -301,10 +365,13 @@
         <v>200.0</v>
       </c>
       <c r="B21" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C21" t="n">
         <v>19900.0</v>
       </c>
-      <c r="C21" t="n">
-        <v>2994.0</v>
+      <c r="D21" t="n">
+        <v>1280392.0</v>
       </c>
     </row>
     <row r="22">
@@ -312,10 +379,13 @@
         <v>300.0</v>
       </c>
       <c r="B22" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C22" t="n">
         <v>4485.0</v>
       </c>
-      <c r="C22" t="n">
-        <v>31219.0</v>
+      <c r="D22" t="n">
+        <v>1669129.0</v>
       </c>
     </row>
     <row r="23">
@@ -323,10 +393,13 @@
         <v>300.0</v>
       </c>
       <c r="B23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C23" t="n">
         <v>8970.0</v>
       </c>
-      <c r="C23" t="n">
-        <v>40627.0</v>
+      <c r="D23" t="n">
+        <v>2285376.0</v>
       </c>
     </row>
     <row r="24">
@@ -334,10 +407,13 @@
         <v>300.0</v>
       </c>
       <c r="B24" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C24" t="n">
         <v>13455.0</v>
       </c>
-      <c r="C24" t="n">
-        <v>38489.0</v>
+      <c r="D24" t="n">
+        <v>2113887.0</v>
       </c>
     </row>
     <row r="25">
@@ -345,10 +421,13 @@
         <v>300.0</v>
       </c>
       <c r="B25" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C25" t="n">
         <v>17940.0</v>
       </c>
-      <c r="C25" t="n">
-        <v>45759.0</v>
+      <c r="D25" t="n">
+        <v>1800418.0</v>
       </c>
     </row>
     <row r="26">
@@ -356,10 +435,13 @@
         <v>300.0</v>
       </c>
       <c r="B26" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C26" t="n">
         <v>22425.0</v>
       </c>
-      <c r="C26" t="n">
-        <v>37206.0</v>
+      <c r="D26" t="n">
+        <v>2042041.0</v>
       </c>
     </row>
     <row r="27">
@@ -367,10 +449,13 @@
         <v>300.0</v>
       </c>
       <c r="B27" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C27" t="n">
         <v>26910.0</v>
       </c>
-      <c r="C27" t="n">
-        <v>39772.0</v>
+      <c r="D27" t="n">
+        <v>3028209.0</v>
       </c>
     </row>
     <row r="28">
@@ -378,10 +463,13 @@
         <v>300.0</v>
       </c>
       <c r="B28" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C28" t="n">
         <v>31395.0</v>
       </c>
-      <c r="C28" t="n">
-        <v>55595.0</v>
+      <c r="D28" t="n">
+        <v>2739116.0</v>
       </c>
     </row>
     <row r="29">
@@ -389,10 +477,13 @@
         <v>300.0</v>
       </c>
       <c r="B29" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C29" t="n">
         <v>35880.0</v>
       </c>
-      <c r="C29" t="n">
-        <v>47469.0</v>
+      <c r="D29" t="n">
+        <v>2340970.0</v>
       </c>
     </row>
     <row r="30">
@@ -400,10 +491,13 @@
         <v>300.0</v>
       </c>
       <c r="B30" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C30" t="n">
         <v>40365.0</v>
       </c>
-      <c r="C30" t="n">
-        <v>53029.0</v>
+      <c r="D30" t="n">
+        <v>4888070.0</v>
       </c>
     </row>
     <row r="31">
@@ -411,10 +505,13 @@
         <v>300.0</v>
       </c>
       <c r="B31" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C31" t="n">
         <v>44850.0</v>
       </c>
-      <c r="C31" t="n">
-        <v>49607.0</v>
+      <c r="D31" t="n">
+        <v>6765893.0</v>
       </c>
     </row>
     <row r="32">
@@ -422,10 +519,13 @@
         <v>400.0</v>
       </c>
       <c r="B32" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C32" t="n">
         <v>7980.0</v>
       </c>
-      <c r="C32" t="n">
-        <v>66286.0</v>
+      <c r="D32" t="n">
+        <v>6820205.0</v>
       </c>
     </row>
     <row r="33">
@@ -433,10 +533,13 @@
         <v>400.0</v>
       </c>
       <c r="B33" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C33" t="n">
         <v>15960.0</v>
       </c>
-      <c r="C33" t="n">
-        <v>77405.0</v>
+      <c r="D33" t="n">
+        <v>6423344.0</v>
       </c>
     </row>
     <row r="34">
@@ -444,10 +547,13 @@
         <v>400.0</v>
       </c>
       <c r="B34" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C34" t="n">
         <v>23940.0</v>
       </c>
-      <c r="C34" t="n">
-        <v>72273.0</v>
+      <c r="D34" t="n">
+        <v>9369871.0</v>
       </c>
     </row>
     <row r="35">
@@ -455,10 +561,13 @@
         <v>400.0</v>
       </c>
       <c r="B35" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C35" t="n">
         <v>31920.0</v>
       </c>
-      <c r="C35" t="n">
-        <v>80826.0</v>
+      <c r="D35" t="n">
+        <v>8859254.0</v>
       </c>
     </row>
     <row r="36">
@@ -466,10 +575,13 @@
         <v>400.0</v>
       </c>
       <c r="B36" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C36" t="n">
         <v>39900.0</v>
       </c>
-      <c r="C36" t="n">
-        <v>113328.0</v>
+      <c r="D36" t="n">
+        <v>9269373.0</v>
       </c>
     </row>
     <row r="37">
@@ -477,10 +589,13 @@
         <v>400.0</v>
       </c>
       <c r="B37" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C37" t="n">
         <v>47880.0</v>
       </c>
-      <c r="C37" t="n">
-        <v>56451.0</v>
+      <c r="D37" t="n">
+        <v>1.2121816E7</v>
       </c>
     </row>
     <row r="38">
@@ -488,10 +603,13 @@
         <v>400.0</v>
       </c>
       <c r="B38" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C38" t="n">
         <v>55860.0</v>
       </c>
-      <c r="C38" t="n">
-        <v>44904.0</v>
+      <c r="D38" t="n">
+        <v>1.6283304E7</v>
       </c>
     </row>
     <row r="39">
@@ -499,10 +617,13 @@
         <v>400.0</v>
       </c>
       <c r="B39" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C39" t="n">
         <v>63840.0</v>
       </c>
-      <c r="C39" t="n">
-        <v>38488.0</v>
+      <c r="D39" t="n">
+        <v>1.8317648E7</v>
       </c>
     </row>
     <row r="40">
@@ -510,10 +631,13 @@
         <v>400.0</v>
       </c>
       <c r="B40" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C40" t="n">
         <v>71820.0</v>
       </c>
-      <c r="C40" t="n">
-        <v>35923.0</v>
+      <c r="D40" t="n">
+        <v>1.8428411E7</v>
       </c>
     </row>
     <row r="41">
@@ -521,10 +645,13 @@
         <v>400.0</v>
       </c>
       <c r="B41" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C41" t="n">
         <v>79800.0</v>
       </c>
-      <c r="C41" t="n">
-        <v>37205.0</v>
+      <c r="D41" t="n">
+        <v>2.329125E7</v>
       </c>
     </row>
     <row r="42">
@@ -532,10 +659,13 @@
         <v>500.0</v>
       </c>
       <c r="B42" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C42" t="n">
         <v>12475.0</v>
       </c>
-      <c r="C42" t="n">
-        <v>20527.0</v>
+      <c r="D42" t="n">
+        <v>2.3091108E7</v>
       </c>
     </row>
     <row r="43">
@@ -543,10 +673,13 @@
         <v>500.0</v>
       </c>
       <c r="B43" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C43" t="n">
         <v>24950.0</v>
       </c>
-      <c r="C43" t="n">
-        <v>18817.0</v>
+      <c r="D43" t="n">
+        <v>2.4512626E7</v>
       </c>
     </row>
     <row r="44">
@@ -554,10 +687,13 @@
         <v>500.0</v>
       </c>
       <c r="B44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C44" t="n">
         <v>37425.0</v>
       </c>
-      <c r="C44" t="n">
-        <v>27369.0</v>
+      <c r="D44" t="n">
+        <v>2.7909044E7</v>
       </c>
     </row>
     <row r="45">
@@ -565,10 +701,13 @@
         <v>500.0</v>
       </c>
       <c r="B45" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C45" t="n">
         <v>49900.0</v>
       </c>
-      <c r="C45" t="n">
-        <v>44904.0</v>
+      <c r="D45" t="n">
+        <v>2.9320297E7</v>
       </c>
     </row>
     <row r="46">
@@ -576,10 +715,13 @@
         <v>500.0</v>
       </c>
       <c r="B46" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C46" t="n">
         <v>62375.0</v>
       </c>
-      <c r="C46" t="n">
-        <v>50890.0</v>
+      <c r="D46" t="n">
+        <v>3.06225E7</v>
       </c>
     </row>
     <row r="47">
@@ -587,10 +729,13 @@
         <v>500.0</v>
       </c>
       <c r="B47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C47" t="n">
         <v>74850.0</v>
       </c>
-      <c r="C47" t="n">
-        <v>67997.0</v>
+      <c r="D47" t="n">
+        <v>3.2911725E7</v>
       </c>
     </row>
     <row r="48">
@@ -598,10 +743,13 @@
         <v>500.0</v>
       </c>
       <c r="B48" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C48" t="n">
         <v>87325.0</v>
       </c>
-      <c r="C48" t="n">
-        <v>75695.0</v>
+      <c r="D48" t="n">
+        <v>3.5096174E7</v>
       </c>
     </row>
     <row r="49">
@@ -609,10 +757,13 @@
         <v>500.0</v>
       </c>
       <c r="B49" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C49" t="n">
         <v>99800.0</v>
       </c>
-      <c r="C49" t="n">
-        <v>58161.0</v>
+      <c r="D49" t="n">
+        <v>3.754021E7</v>
       </c>
     </row>
     <row r="50">
@@ -620,10 +771,13 @@
         <v>500.0</v>
       </c>
       <c r="B50" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C50" t="n">
         <v>112275.0</v>
       </c>
-      <c r="C50" t="n">
-        <v>88096.0</v>
+      <c r="D50" t="n">
+        <v>3.9779827E7</v>
       </c>
     </row>
     <row r="51">
@@ -631,10 +785,13 @@
         <v>500.0</v>
       </c>
       <c r="B51" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C51" t="n">
         <v>124750.0</v>
       </c>
-      <c r="C51" t="n">
-        <v>76977.0</v>
+      <c r="D51" t="n">
+        <v>4.0787805E7</v>
       </c>
     </row>
     <row r="52">
@@ -642,10 +799,13 @@
         <v>600.0</v>
       </c>
       <c r="B52" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C52" t="n">
         <v>17970.0</v>
       </c>
-      <c r="C52" t="n">
-        <v>35495.0</v>
+      <c r="D52" t="n">
+        <v>4.3433265E7</v>
       </c>
     </row>
     <row r="53">
@@ -653,10 +813,13 @@
         <v>600.0</v>
       </c>
       <c r="B53" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C53" t="n">
         <v>35940.0</v>
       </c>
-      <c r="C53" t="n">
-        <v>47470.0</v>
+      <c r="D53" t="n">
+        <v>4.6227974E7</v>
       </c>
     </row>
     <row r="54">
@@ -664,10 +827,13 @@
         <v>600.0</v>
       </c>
       <c r="B54" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C54" t="n">
         <v>53910.0</v>
       </c>
-      <c r="C54" t="n">
-        <v>14112.0</v>
+      <c r="D54" t="n">
+        <v>4.3562843E7</v>
       </c>
     </row>
     <row r="55">
@@ -675,10 +841,13 @@
         <v>600.0</v>
       </c>
       <c r="B55" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C55" t="n">
         <v>71880.0</v>
       </c>
-      <c r="C55" t="n">
-        <v>15823.0</v>
+      <c r="D55" t="n">
+        <v>5.3757228E7</v>
       </c>
     </row>
     <row r="56">
@@ -686,10 +855,13 @@
         <v>600.0</v>
       </c>
       <c r="B56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C56" t="n">
         <v>89850.0</v>
       </c>
-      <c r="C56" t="n">
-        <v>18390.0</v>
+      <c r="D56" t="n">
+        <v>5.658444E7</v>
       </c>
     </row>
     <row r="57">
@@ -697,10 +869,13 @@
         <v>600.0</v>
       </c>
       <c r="B57" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C57" t="n">
         <v>107820.0</v>
       </c>
-      <c r="C57" t="n">
-        <v>28652.0</v>
+      <c r="D57" t="n">
+        <v>5.9230328E7</v>
       </c>
     </row>
     <row r="58">
@@ -708,10 +883,13 @@
         <v>600.0</v>
       </c>
       <c r="B58" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C58" t="n">
         <v>125790.0</v>
       </c>
-      <c r="C58" t="n">
-        <v>22238.0</v>
+      <c r="D58" t="n">
+        <v>5.8941662E7</v>
       </c>
     </row>
     <row r="59">
@@ -719,10 +897,13 @@
         <v>600.0</v>
       </c>
       <c r="B59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C59" t="n">
         <v>143760.0</v>
       </c>
-      <c r="C59" t="n">
-        <v>26087.0</v>
+      <c r="D59" t="n">
+        <v>6.2962026E7</v>
       </c>
     </row>
     <row r="60">
@@ -730,10 +911,13 @@
         <v>600.0</v>
       </c>
       <c r="B60" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C60" t="n">
         <v>161730.0</v>
       </c>
-      <c r="C60" t="n">
-        <v>32502.0</v>
+      <c r="D60" t="n">
+        <v>6.4566578E7</v>
       </c>
     </row>
     <row r="61">
@@ -741,10 +925,13 @@
         <v>600.0</v>
       </c>
       <c r="B61" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C61" t="n">
         <v>179700.0</v>
       </c>
-      <c r="C61" t="n">
-        <v>46614.0</v>
+      <c r="D61" t="n">
+        <v>6.7904407E7</v>
       </c>
     </row>
     <row r="62">
@@ -752,10 +939,13 @@
         <v>700.0</v>
       </c>
       <c r="B62" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C62" t="n">
         <v>24465.0</v>
       </c>
-      <c r="C62" t="n">
-        <v>18389.0</v>
+      <c r="D62" t="n">
+        <v>6.962742E7</v>
       </c>
     </row>
     <row r="63">
@@ -763,10 +953,13 @@
         <v>700.0</v>
       </c>
       <c r="B63" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C63" t="n">
         <v>48930.0</v>
       </c>
-      <c r="C63" t="n">
-        <v>20955.0</v>
+      <c r="D63" t="n">
+        <v>7.5035089E7</v>
       </c>
     </row>
     <row r="64">
@@ -774,10 +967,13 @@
         <v>700.0</v>
       </c>
       <c r="B64" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C64" t="n">
         <v>73395.0</v>
       </c>
-      <c r="C64" t="n">
-        <v>26515.0</v>
+      <c r="D64" t="n">
+        <v>7.8224095E7</v>
       </c>
     </row>
     <row r="65">
@@ -785,10 +981,13 @@
         <v>700.0</v>
       </c>
       <c r="B65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C65" t="n">
         <v>97860.0</v>
       </c>
-      <c r="C65" t="n">
-        <v>56878.0</v>
+      <c r="D65" t="n">
+        <v>8.3464552E7</v>
       </c>
     </row>
     <row r="66">
@@ -796,10 +995,13 @@
         <v>700.0</v>
       </c>
       <c r="B66" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C66" t="n">
         <v>122325.0</v>
       </c>
-      <c r="C66" t="n">
-        <v>43192.0</v>
+      <c r="D66" t="n">
+        <v>9.0826593E7</v>
       </c>
     </row>
     <row r="67">
@@ -807,10 +1009,13 @@
         <v>700.0</v>
       </c>
       <c r="B67" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C67" t="n">
         <v>146790.0</v>
       </c>
-      <c r="C67" t="n">
-        <v>59016.0</v>
+      <c r="D67" t="n">
+        <v>9.48662E7</v>
       </c>
     </row>
     <row r="68">
@@ -818,10 +1023,13 @@
         <v>700.0</v>
       </c>
       <c r="B68" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C68" t="n">
         <v>171255.0</v>
       </c>
-      <c r="C68" t="n">
-        <v>82965.0</v>
+      <c r="D68" t="n">
+        <v>9.9132464E7</v>
       </c>
     </row>
     <row r="69">
@@ -829,10 +1037,13 @@
         <v>700.0</v>
       </c>
       <c r="B69" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C69" t="n">
         <v>195720.0</v>
       </c>
-      <c r="C69" t="n">
-        <v>57733.0</v>
+      <c r="D69" t="n">
+        <v>1.0244891E8</v>
       </c>
     </row>
     <row r="70">
@@ -840,10 +1051,13 @@
         <v>700.0</v>
       </c>
       <c r="B70" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C70" t="n">
         <v>220185.0</v>
       </c>
-      <c r="C70" t="n">
-        <v>67142.0</v>
+      <c r="D70" t="n">
+        <v>1.10101755E8</v>
       </c>
     </row>
     <row r="71">
@@ -851,10 +1065,13 @@
         <v>700.0</v>
       </c>
       <c r="B71" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C71" t="n">
         <v>244650.0</v>
       </c>
-      <c r="C71" t="n">
-        <v>45759.0</v>
+      <c r="D71" t="n">
+        <v>1.06896499E8</v>
       </c>
     </row>
     <row r="72">
@@ -862,10 +1079,13 @@
         <v>800.0</v>
       </c>
       <c r="B72" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C72" t="n">
         <v>31960.0</v>
       </c>
-      <c r="C72" t="n">
-        <v>7270.0</v>
+      <c r="D72" t="n">
+        <v>1.14510855E8</v>
       </c>
     </row>
     <row r="73">
@@ -873,10 +1093,13 @@
         <v>800.0</v>
       </c>
       <c r="B73" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C73" t="n">
         <v>63920.0</v>
       </c>
-      <c r="C73" t="n">
-        <v>11547.0</v>
+      <c r="D73" t="n">
+        <v>1.21894707E8</v>
       </c>
     </row>
     <row r="74">
@@ -884,10 +1107,13 @@
         <v>800.0</v>
       </c>
       <c r="B74" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C74" t="n">
         <v>95880.0</v>
       </c>
-      <c r="C74" t="n">
-        <v>13257.0</v>
+      <c r="D74" t="n">
+        <v>1.26910645E8</v>
       </c>
     </row>
     <row r="75">
@@ -895,10 +1121,13 @@
         <v>800.0</v>
       </c>
       <c r="B75" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C75" t="n">
         <v>127840.0</v>
       </c>
-      <c r="C75" t="n">
-        <v>17534.0</v>
+      <c r="D75" t="n">
+        <v>1.34800838E8</v>
       </c>
     </row>
     <row r="76">
@@ -906,10 +1135,13 @@
         <v>800.0</v>
       </c>
       <c r="B76" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C76" t="n">
         <v>159800.0</v>
       </c>
-      <c r="C76" t="n">
-        <v>17106.0</v>
+      <c r="D76" t="n">
+        <v>1.42696163E8</v>
       </c>
     </row>
     <row r="77">
@@ -917,10 +1149,13 @@
         <v>800.0</v>
       </c>
       <c r="B77" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C77" t="n">
         <v>191760.0</v>
       </c>
-      <c r="C77" t="n">
-        <v>32929.0</v>
+      <c r="D77" t="n">
+        <v>1.44373844E8</v>
       </c>
     </row>
     <row r="78">
@@ -928,10 +1163,13 @@
         <v>800.0</v>
       </c>
       <c r="B78" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C78" t="n">
         <v>223720.0</v>
       </c>
-      <c r="C78" t="n">
-        <v>20955.0</v>
+      <c r="D78" t="n">
+        <v>1.50631686E8</v>
       </c>
     </row>
     <row r="79">
@@ -939,10 +1177,13 @@
         <v>800.0</v>
       </c>
       <c r="B79" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C79" t="n">
         <v>255680.0</v>
       </c>
-      <c r="C79" t="n">
-        <v>20955.0</v>
+      <c r="D79" t="n">
+        <v>1.5826828E8</v>
       </c>
     </row>
     <row r="80">
@@ -950,10 +1191,13 @@
         <v>800.0</v>
       </c>
       <c r="B80" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C80" t="n">
         <v>287640.0</v>
       </c>
-      <c r="C80" t="n">
-        <v>20527.0</v>
+      <c r="D80" t="n">
+        <v>1.59384454E8</v>
       </c>
     </row>
     <row r="81">
@@ -961,10 +1205,13 @@
         <v>800.0</v>
       </c>
       <c r="B81" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C81" t="n">
         <v>319600.0</v>
       </c>
-      <c r="C81" t="n">
-        <v>19244.0</v>
+      <c r="D81" t="n">
+        <v>1.66226042E8</v>
       </c>
     </row>
     <row r="82">
@@ -972,10 +1219,13 @@
         <v>900.0</v>
       </c>
       <c r="B82" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C82" t="n">
         <v>40455.0</v>
       </c>
-      <c r="C82" t="n">
-        <v>38489.0</v>
+      <c r="D82" t="n">
+        <v>1.70542341E8</v>
       </c>
     </row>
     <row r="83">
@@ -983,10 +1233,13 @@
         <v>900.0</v>
       </c>
       <c r="B83" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C83" t="n">
         <v>80910.0</v>
       </c>
-      <c r="C83" t="n">
-        <v>33785.0</v>
+      <c r="D83" t="n">
+        <v>1.78080147E8</v>
       </c>
     </row>
     <row r="84">
@@ -994,10 +1247,13 @@
         <v>900.0</v>
       </c>
       <c r="B84" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C84" t="n">
         <v>121365.0</v>
       </c>
-      <c r="C84" t="n">
-        <v>50891.0</v>
+      <c r="D84" t="n">
+        <v>1.8803077E8</v>
       </c>
     </row>
     <row r="85">
@@ -1005,10 +1261,13 @@
         <v>900.0</v>
       </c>
       <c r="B85" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C85" t="n">
         <v>161820.0</v>
       </c>
-      <c r="C85" t="n">
-        <v>35067.0</v>
+      <c r="D85" t="n">
+        <v>1.7576526E7</v>
       </c>
     </row>
     <row r="86">
@@ -1016,10 +1275,13 @@
         <v>900.0</v>
       </c>
       <c r="B86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C86" t="n">
         <v>202275.0</v>
       </c>
-      <c r="C86" t="n">
-        <v>35923.0</v>
+      <c r="D86" t="n">
+        <v>2.5205423E7</v>
       </c>
     </row>
     <row r="87">
@@ -1027,10 +1289,13 @@
         <v>900.0</v>
       </c>
       <c r="B87" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C87" t="n">
         <v>242730.0</v>
       </c>
-      <c r="C87" t="n">
-        <v>40627.0</v>
+      <c r="D87" t="n">
+        <v>3.0471966E7</v>
       </c>
     </row>
     <row r="88">
@@ -1038,10 +1303,13 @@
         <v>900.0</v>
       </c>
       <c r="B88" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C88" t="n">
         <v>283185.0</v>
       </c>
-      <c r="C88" t="n">
-        <v>85103.0</v>
+      <c r="D88" t="n">
+        <v>3.5746635E7</v>
       </c>
     </row>
     <row r="89">
@@ -1049,10 +1317,13 @@
         <v>900.0</v>
       </c>
       <c r="B89" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C89" t="n">
         <v>323640.0</v>
       </c>
-      <c r="C89" t="n">
-        <v>54740.0</v>
+      <c r="D89" t="n">
+        <v>4.2426997E7</v>
       </c>
     </row>
     <row r="90">
@@ -1060,10 +1331,13 @@
         <v>900.0</v>
       </c>
       <c r="B90" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C90" t="n">
         <v>364095.0</v>
       </c>
-      <c r="C90" t="n">
-        <v>58161.0</v>
+      <c r="D90" t="n">
+        <v>5.0212416E7</v>
       </c>
     </row>
     <row r="91">
@@ -1071,10 +1345,13 @@
         <v>900.0</v>
       </c>
       <c r="B91" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C91" t="n">
         <v>404550.0</v>
       </c>
-      <c r="C91" t="n">
-        <v>82964.0</v>
+      <c r="D91" t="n">
+        <v>5.6435617E7</v>
       </c>
     </row>
     <row r="92">
@@ -1082,10 +1359,13 @@
         <v>1000.0</v>
       </c>
       <c r="B92" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C92" t="n">
         <v>49950.0</v>
       </c>
-      <c r="C92" t="n">
-        <v>11547.0</v>
+      <c r="D92" t="n">
+        <v>6.2364166E7</v>
       </c>
     </row>
     <row r="93">
@@ -1093,10 +1373,13 @@
         <v>1000.0</v>
       </c>
       <c r="B93" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C93" t="n">
         <v>99900.0</v>
       </c>
-      <c r="C93" t="n">
-        <v>4276.0</v>
+      <c r="D93" t="n">
+        <v>7.0360418E7</v>
       </c>
     </row>
     <row r="94">
@@ -1104,10 +1387,13 @@
         <v>1000.0</v>
       </c>
       <c r="B94" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C94" t="n">
         <v>149850.0</v>
       </c>
-      <c r="C94" t="n">
-        <v>4276.0</v>
+      <c r="D94" t="n">
+        <v>7.9336848E7</v>
       </c>
     </row>
     <row r="95">
@@ -1115,10 +1401,13 @@
         <v>1000.0</v>
       </c>
       <c r="B95" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C95" t="n">
         <v>199800.0</v>
       </c>
-      <c r="C95" t="n">
-        <v>4276.0</v>
+      <c r="D95" t="n">
+        <v>8.5406522E7</v>
       </c>
     </row>
     <row r="96">
@@ -1126,10 +1415,13 @@
         <v>1000.0</v>
       </c>
       <c r="B96" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C96" t="n">
         <v>249750.0</v>
       </c>
-      <c r="C96" t="n">
-        <v>4705.0</v>
+      <c r="D96" t="n">
+        <v>9.4154586E7</v>
       </c>
     </row>
     <row r="97">
@@ -1137,10 +1429,13 @@
         <v>1000.0</v>
       </c>
       <c r="B97" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C97" t="n">
         <v>299700.0</v>
       </c>
-      <c r="C97" t="n">
-        <v>4277.0</v>
+      <c r="D97" t="n">
+        <v>1.01960531E8</v>
       </c>
     </row>
     <row r="98">
@@ -1148,10 +1443,13 @@
         <v>1000.0</v>
       </c>
       <c r="B98" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C98" t="n">
         <v>349650.0</v>
       </c>
-      <c r="C98" t="n">
-        <v>11119.0</v>
+      <c r="D98" t="n">
+        <v>1.12139521E8</v>
       </c>
     </row>
     <row r="99">
@@ -1159,10 +1457,13 @@
         <v>1000.0</v>
       </c>
       <c r="B99" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C99" t="n">
         <v>399600.0</v>
       </c>
-      <c r="C99" t="n">
-        <v>4704.0</v>
+      <c r="D99" t="n">
+        <v>1.23630122E8</v>
       </c>
     </row>
     <row r="100">
@@ -1170,10 +1471,13 @@
         <v>1000.0</v>
       </c>
       <c r="B100" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C100" t="n">
         <v>449550.0</v>
       </c>
-      <c r="C100" t="n">
-        <v>9836.0</v>
+      <c r="D100" t="n">
+        <v>1.31832072E8</v>
       </c>
     </row>
     <row r="101">
@@ -1181,10 +1485,13 @@
         <v>1000.0</v>
       </c>
       <c r="B101" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="C101" t="n">
         <v>499500.0</v>
       </c>
-      <c r="C101" t="n">
-        <v>4704.0</v>
+      <c r="D101" t="n">
+        <v>1.39360471E8</v>
       </c>
     </row>
   </sheetData>
